--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5703,7 +5703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1050"/>
   <sheetViews>
-    <sheetView topLeftCell="A561" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A561" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D583" sqref="D583"/>
     </sheetView>
   </sheetViews>
@@ -23579,7 +23579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
